--- a/biology/Botanique/Cupressales/Cupressales.xlsx
+++ b/biology/Botanique/Cupressales/Cupressales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cupressales sont un ordre de plantes gymnospermes de la sous-classe des Pinidae, regroupant notamment les Cyprès, les Genévriers, les Séquoias et les Ifs.
 </t>
@@ -511,25 +523,27 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la World Flora Online (WFO)       (10 août 2023)[1], l'INPN      (10 août 2023)[2], The Taxonomicon  (10 août 2023)[3] et le World Register of Marine Species                               (10 août 2023)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la World Flora Online (WFO)       (10 août 2023), l'INPN      (10 août 2023), The Taxonomicon  (10 août 2023) et le World Register of Marine Species                               (10 août 2023) :
 Cupressaceae Gray, 1822 nom. cons.
 Sciadopityaceae Luerss., 1877
 Taxaceae Gray, 1822 nom. cons.
-Selon Tropicos                                           (10 août 2023)[5] :
+Selon Tropicos                                           (10 août 2023) :
 Actinostrobaceae Lotsy, 1911
 † Callitridaceae Seward, 1919
 Cupressaceae Gray, 1822
 Limnopityaceae Hayata, 1932
-Selon l'IRMNG  (10 août 2023)[6] :
+Selon l'IRMNG  (10 août 2023) :
 Cupressaceae Gray, 1822
 † Geinitziaceae Kunzmann, 1999
 Sciadopityaceae Luerssen, 1877
 Taxaceae Gray, 1822
 famille incertae sedis
 † Protocallitrixylon S. Yamazaki &amp; K. Tsunada, 1982
-Selon The International Fossil Plant Names Index (IFPNI)                (10 août 2023)[7] :
+Selon The International Fossil Plant Names Index (IFPNI)                (10 août 2023) :
 Cupressaceae
 † Metasequoiaceae
 famille incertae sedis
@@ -545,7 +559,7 @@
 † Margeriella
 † Sequoites
 † Thujoxylon
-Selon la Paleobiology Database                   (10 août 2023)[8] :
+Selon la Paleobiology Database                   (10 août 2023) :
 famille incertae sedis
 † Inaperturopollenites
 † Sphaeripollenites</t>
@@ -576,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la World Flora Online (WFO)       (10 août 2023)[1], Cupressales Link a pour synonymes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la World Flora Online (WFO)       (10 août 2023), Cupressales Link a pour synonymes :
 Actinostrobales Doweld
 Athrotaxidales Doweld
 Cephalotaxales Takht. ex Reveal
@@ -614,9 +630,11 @@
           <t>Position phylogénétique au sein des Gymnospermes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Acrogymnospermae[9],[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Acrogymnospermae,
 </t>
         </is>
       </c>
